--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="9930"/>
+    <workbookView windowWidth="21195" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -542,12 +542,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +573,40 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,7 +652,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,21 +697,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,29 +719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -699,16 +727,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +749,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +791,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,19 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,127 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,54 +971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1019,17 +991,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1014,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1056,10 +1076,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,16 +1088,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,119 +1106,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,16 +1234,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1288,6 +1314,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1543,20 +1574,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
@@ -1565,7 +1595,7 @@
     <col min="8" max="8" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1591,157 +1621,160 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="26" ht="16.5" spans="4:4">
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1754,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1809,22 +1842,22 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
@@ -1838,22 +1871,22 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="I3" t="s">
@@ -1867,22 +1900,22 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
@@ -1896,19 +1929,19 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
@@ -1922,19 +1955,19 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
@@ -1948,22 +1981,22 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="I7" t="s">
@@ -1977,19 +2010,19 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
@@ -2003,22 +2036,22 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I9" t="s">
@@ -2032,22 +2065,22 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
@@ -2070,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2119,16 +2152,16 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -2142,16 +2175,16 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
@@ -2165,13 +2198,13 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
@@ -2185,16 +2218,16 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
@@ -2208,16 +2241,16 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
@@ -2237,7 +2270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -2296,28 +2329,28 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
@@ -2331,28 +2364,28 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
@@ -2366,25 +2399,25 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
@@ -2398,25 +2431,25 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
@@ -2430,25 +2463,25 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
@@ -2462,13 +2495,13 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F7" t="s">
@@ -2477,13 +2510,13 @@
       <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K7" t="s">
@@ -2497,25 +2530,25 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
@@ -2529,28 +2562,28 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
@@ -2564,25 +2597,25 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -2599,25 +2632,25 @@
       <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K11" t="s">
@@ -2631,25 +2664,25 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K12" t="s">
@@ -2663,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -2716,10 +2749,10 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E2" t="s">
@@ -2728,10 +2761,10 @@
       <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
@@ -2745,7 +2778,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
@@ -2754,10 +2787,10 @@
       <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
@@ -2771,19 +2804,19 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
@@ -2797,10 +2830,10 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
@@ -2809,10 +2842,10 @@
       <c r="F5" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>95</v>
       </c>
       <c r="I5" t="s">
@@ -2826,10 +2859,10 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
@@ -2838,10 +2871,10 @@
       <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="I6" t="s">
@@ -2855,19 +2888,19 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
@@ -2884,7 +2917,7 @@
       <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
@@ -2893,10 +2926,10 @@
       <c r="F8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I8" t="s">
@@ -2910,10 +2943,10 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
@@ -2922,10 +2955,10 @@
       <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>103</v>
       </c>
       <c r="I9" t="s">
@@ -2939,7 +2972,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
@@ -2948,10 +2981,10 @@
       <c r="F10" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
@@ -2965,10 +2998,10 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
@@ -2977,10 +3010,10 @@
       <c r="F11" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
@@ -2994,7 +3027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -3076,14 +3109,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" ht="15" spans="1:21">
       <c r="A2" t="s">
         <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3095,10 +3128,10 @@
       <c r="F2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3113,10 +3146,10 @@
       <c r="L2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -3125,30 +3158,30 @@
       <c r="P2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="9" t="s">
+      <c r="R2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" ht="15" spans="1:21">
       <c r="A3" t="s">
         <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
@@ -3158,10 +3191,10 @@
       <c r="F3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -3176,10 +3209,10 @@
       <c r="L3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -3188,30 +3221,30 @@
       <c r="P3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="9" t="s">
+      <c r="R3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>134</v>
       </c>
       <c r="U3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="15" spans="1:21">
       <c r="A4" t="s">
         <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3221,10 +3254,10 @@
       <c r="F4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -3239,10 +3272,10 @@
       <c r="L4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -3251,30 +3284,30 @@
       <c r="P4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="9" t="s">
+      <c r="R4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>137</v>
       </c>
       <c r="U4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="15" spans="1:21">
       <c r="A5" t="s">
         <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3284,10 +3317,10 @@
         <v>122</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -3302,10 +3335,10 @@
       <c r="L5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O5" s="3" t="s">
@@ -3314,30 +3347,30 @@
       <c r="P5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="9" t="s">
+      <c r="R5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>140</v>
       </c>
       <c r="U5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" ht="15" spans="1:21">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3350,7 +3383,7 @@
         <v>123</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -3365,10 +3398,10 @@
       <c r="L6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -3377,30 +3410,30 @@
       <c r="P6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="9" t="s">
+      <c r="R6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="11" t="s">
         <v>143</v>
       </c>
       <c r="U6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" ht="15" spans="1:21">
       <c r="A7" t="s">
         <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3415,7 +3448,7 @@
       <c r="G7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -3430,10 +3463,10 @@
       <c r="L7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -3442,30 +3475,30 @@
       <c r="P7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="9" t="s">
+      <c r="R7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>143</v>
       </c>
       <c r="U7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" ht="15" spans="1:21">
       <c r="A8" t="s">
         <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3477,10 +3510,10 @@
       <c r="F8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I8" s="3"/>
@@ -3493,10 +3526,10 @@
       <c r="L8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -3505,30 +3538,30 @@
       <c r="P8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="9" t="s">
+      <c r="R8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="11" t="s">
         <v>148</v>
       </c>
       <c r="U8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" ht="15" spans="1:21">
       <c r="A9" t="s">
         <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3540,10 +3573,10 @@
       <c r="F9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -3558,10 +3591,10 @@
       <c r="L9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -3570,30 +3603,30 @@
       <c r="P9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="9" t="s">
+      <c r="R9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>148</v>
       </c>
       <c r="U9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" ht="15" spans="1:21">
       <c r="A10" t="s">
         <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3605,10 +3638,10 @@
       <c r="F10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -3621,10 +3654,10 @@
       <c r="L10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -3633,30 +3666,30 @@
       <c r="P10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="9" t="s">
+      <c r="R10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>153</v>
       </c>
       <c r="U10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" ht="15" spans="1:21">
       <c r="A11" t="s">
         <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -3668,10 +3701,10 @@
       <c r="F11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -3686,10 +3719,10 @@
       <c r="L11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -3698,30 +3731,30 @@
       <c r="P11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="9" t="s">
+      <c r="R11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="11" t="s">
         <v>153</v>
       </c>
       <c r="U11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" ht="15" spans="1:21">
       <c r="A12" t="s">
         <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3733,10 +3766,10 @@
       <c r="F12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -3749,10 +3782,10 @@
         <v>128</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -3761,30 +3794,30 @@
       <c r="P12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="9" t="s">
+      <c r="R12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>158</v>
       </c>
       <c r="U12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" ht="15" spans="1:21">
       <c r="A13" t="s">
         <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3796,10 +3829,10 @@
       <c r="F13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -3815,7 +3848,7 @@
         <v>129</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -3824,30 +3857,30 @@
       <c r="P13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="9" t="s">
+      <c r="R13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>161</v>
       </c>
       <c r="U13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" ht="15" spans="1:21">
       <c r="A14" t="s">
         <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3859,10 +3892,10 @@
       <c r="F14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -3877,10 +3910,10 @@
       <c r="L14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -3889,30 +3922,30 @@
       <c r="P14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="9" t="s">
+      <c r="R14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="11" t="s">
         <v>161</v>
       </c>
       <c r="U14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" ht="15" spans="1:21">
       <c r="A15" t="s">
         <v>165</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3924,10 +3957,10 @@
       <c r="F15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -3942,7 +3975,7 @@
       <c r="L15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="3"/>
@@ -3952,23 +3985,23 @@
       <c r="P15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="9" t="s">
+      <c r="R15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="11" t="s">
         <v>166</v>
       </c>
       <c r="U15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" ht="15" spans="1:21">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -3987,10 +4020,10 @@
       <c r="F16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -4005,10 +4038,10 @@
       <c r="L16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -4017,30 +4050,30 @@
       <c r="P16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="9" t="s">
+      <c r="R16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="U16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" ht="15" spans="1:21">
       <c r="A17" t="s">
         <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4052,10 +4085,10 @@
       <c r="F17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -4070,10 +4103,10 @@
       <c r="L17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -4082,23 +4115,23 @@
       <c r="P17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="9" t="s">
+      <c r="R17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>103</v>
       </c>
       <c r="U17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" ht="15" spans="1:21">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -4114,10 +4147,10 @@
       <c r="F18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="13" t="s">
         <v>125</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -4132,10 +4165,10 @@
       <c r="L18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="13" t="s">
         <v>130</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -4144,23 +4177,23 @@
       <c r="P18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="9" t="s">
+      <c r="R18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="U18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:17">
+    <row r="19" ht="15" spans="4:17">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4176,7 +4209,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="4:17">
+    <row r="20" ht="15" spans="4:17">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4192,7 +4225,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="4:17">
+    <row r="21" ht="15" spans="4:17">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21195" windowHeight="10515"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>case_name</t>
   </si>
@@ -72,223 +72,226 @@
     <t>1</t>
   </si>
   <si>
+    <t>参数错误或不完整</t>
+  </si>
+  <si>
+    <t>login_EmailError</t>
+  </si>
+  <si>
+    <t>interfa@163.com</t>
+  </si>
+  <si>
+    <t>login_EmailNull</t>
+  </si>
+  <si>
+    <t>login_PasswordNull</t>
+  </si>
+  <si>
+    <t>login_TokenNull</t>
+  </si>
+  <si>
+    <t>confirmpwd</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>interface4@163.com</t>
+  </si>
+  <si>
+    <t>register_PasswordError</t>
+  </si>
+  <si>
+    <t>400502</t>
+  </si>
+  <si>
+    <t>please your input are the same</t>
+  </si>
+  <si>
+    <t>register_EmailError</t>
+  </si>
+  <si>
+    <t>interfa$163.com</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>email with interfa$163.com call: Argument is not an json: email</t>
+  </si>
+  <si>
+    <t>register_EmailNull</t>
+  </si>
+  <si>
+    <t>email with  call: Argument is not an json: email</t>
+  </si>
+  <si>
+    <t>register_PasswordNull</t>
+  </si>
+  <si>
+    <t>password with  call: Argument is a blank string: password</t>
+  </si>
+  <si>
+    <t>register_ConfirmError</t>
+  </si>
+  <si>
+    <t>interface3@163.com</t>
+  </si>
+  <si>
+    <t>register_ConfirmNull</t>
+  </si>
+  <si>
+    <t>passwordConfirm with  call: Argument is a blank string: passwordConfirm</t>
+  </si>
+  <si>
+    <t>register_EmailExist</t>
+  </si>
+  <si>
+    <t>400503</t>
+  </si>
+  <si>
+    <t>EmailHasBeenUsed</t>
+  </si>
+  <si>
+    <t>register_TokenNull</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>registerQuick</t>
+  </si>
+  <si>
+    <t>facebook2@163.com</t>
+  </si>
+  <si>
+    <t>registerQuick_EmailError</t>
+  </si>
+  <si>
+    <t>facebook$163.com</t>
+  </si>
+  <si>
+    <t>email with facebook$163.com call: Argument is not an json: email</t>
+  </si>
+  <si>
+    <t>registerQuick_EmailNull</t>
+  </si>
+  <si>
+    <t>registerQuick_EmailExist</t>
+  </si>
+  <si>
+    <t>registerQuick_TokenNull</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>accountSetting</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>testNickName01</t>
+  </si>
+  <si>
+    <t>20170104</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>accountSetting_SexError</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>sex with aa call: Argument is not numeric: sex</t>
+  </si>
+  <si>
+    <t>accountSetting_SexNull</t>
+  </si>
+  <si>
+    <t>sex with  call: Argument is not numeric: sex</t>
+  </si>
+  <si>
+    <t>accountSetting_TelNull</t>
+  </si>
+  <si>
+    <t>accountSetting_NickNameNull</t>
+  </si>
+  <si>
+    <t>accountSetting_BirthdayError</t>
+  </si>
+  <si>
+    <t>asdfghjk</t>
+  </si>
+  <si>
+    <t>birthday with asdfghjk call: Argument is not numeric: birthday</t>
+  </si>
+  <si>
+    <t>accountSetting_BirthdayNull</t>
+  </si>
+  <si>
+    <t>birthday with  call: Argument is not numeric: birthday</t>
+  </si>
+  <si>
+    <t>accountSetting_CountryIdError</t>
+  </si>
+  <si>
+    <t>country_id with aa call: Argument is not numeric: country_id</t>
+  </si>
+  <si>
+    <t>accountSetting_CountryIdNull</t>
+  </si>
+  <si>
+    <t>country_id with  call: Argument is not numeric: country_id</t>
+  </si>
+  <si>
+    <t>accountSetting_TokenError</t>
+  </si>
+  <si>
+    <t>asdfg12435vbgfhd</t>
+  </si>
+  <si>
+    <t>accountSetting_TokenNull</t>
+  </si>
+  <si>
+    <t>old_password</t>
+  </si>
+  <si>
+    <t>password_confirm</t>
+  </si>
+  <si>
+    <t>updatePassword_OldPwdError</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>shein1234</t>
+  </si>
+  <si>
     <t>400504</t>
   </si>
   <si>
     <t>PasswordError</t>
-  </si>
-  <si>
-    <t>login_EmailError</t>
-  </si>
-  <si>
-    <t>interfa@163.com</t>
-  </si>
-  <si>
-    <t>login_EmailNull</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>email with  call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>login_PasswordNull</t>
-  </si>
-  <si>
-    <t>password with  call: Argument is a blank string: password</t>
-  </si>
-  <si>
-    <t>login_TokenNull</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-  </si>
-  <si>
-    <t>confirmpwd</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>interface4@163.com</t>
-  </si>
-  <si>
-    <t>register_PasswordError</t>
-  </si>
-  <si>
-    <t>400502</t>
-  </si>
-  <si>
-    <t>please your input are the same</t>
-  </si>
-  <si>
-    <t>register_EmailError</t>
-  </si>
-  <si>
-    <t>interfa$163.com</t>
-  </si>
-  <si>
-    <t>email with interfa$163.com call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>register_EmailNull</t>
-  </si>
-  <si>
-    <t>register_PasswordNull</t>
-  </si>
-  <si>
-    <t>register_ConfirmError</t>
-  </si>
-  <si>
-    <t>interface3@163.com</t>
-  </si>
-  <si>
-    <t>register_ConfirmNull</t>
-  </si>
-  <si>
-    <t>passwordConfirm with  call: Argument is a blank string: passwordConfirm</t>
-  </si>
-  <si>
-    <t>register_EmailExist</t>
-  </si>
-  <si>
-    <t>400503</t>
-  </si>
-  <si>
-    <t>EmailHasBeenUsed</t>
-  </si>
-  <si>
-    <t>register_TokenNull</t>
-  </si>
-  <si>
-    <t>registerQuick</t>
-  </si>
-  <si>
-    <t>facebook2@163.com</t>
-  </si>
-  <si>
-    <t>registerQuick_EmailError</t>
-  </si>
-  <si>
-    <t>facebook$163.com</t>
-  </si>
-  <si>
-    <t>email with facebook$163.com call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>registerQuick_EmailNull</t>
-  </si>
-  <si>
-    <t>registerQuick_EmailExist</t>
-  </si>
-  <si>
-    <t>registerQuick_TokenNull</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>country_id</t>
-  </si>
-  <si>
-    <t>accountSetting</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>testNickName01</t>
-  </si>
-  <si>
-    <t>20170104</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>accountSetting_SexError</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>sex with aa call: Argument is not numeric: sex</t>
-  </si>
-  <si>
-    <t>accountSetting_SexNull</t>
-  </si>
-  <si>
-    <t>sex with  call: Argument is not numeric: sex</t>
-  </si>
-  <si>
-    <t>accountSetting_TelNull</t>
-  </si>
-  <si>
-    <t>accountSetting_NickNameNull</t>
-  </si>
-  <si>
-    <t>accountSetting_BirthdayError</t>
-  </si>
-  <si>
-    <t>asdfghjk</t>
-  </si>
-  <si>
-    <t>birthday with asdfghjk call: Argument is not numeric: birthday</t>
-  </si>
-  <si>
-    <t>accountSetting_BirthdayNull</t>
-  </si>
-  <si>
-    <t>birthday with  call: Argument is not numeric: birthday</t>
-  </si>
-  <si>
-    <t>accountSetting_CountryIdError</t>
-  </si>
-  <si>
-    <t>country_id with aa call: Argument is not numeric: country_id</t>
-  </si>
-  <si>
-    <t>accountSetting_CountryIdNull</t>
-  </si>
-  <si>
-    <t>country_id with  call: Argument is not numeric: country_id</t>
-  </si>
-  <si>
-    <t>accountSetting_TokenError</t>
-  </si>
-  <si>
-    <t>asdfg12435vbgfhd</t>
-  </si>
-  <si>
-    <t>accountSetting_TokenNull</t>
-  </si>
-  <si>
-    <t>old_password</t>
-  </si>
-  <si>
-    <t>password_confirm</t>
-  </si>
-  <si>
-    <t>updatePassword_OldPwdError</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>shein1234</t>
   </si>
   <si>
     <t>updatePassword_OldPwdNull</t>
@@ -542,9 +545,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -605,8 +608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,37 +618,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,6 +632,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -666,16 +647,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,15 +677,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,10 +729,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -749,7 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +788,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,73 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,49 +842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +866,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,6 +974,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1000,21 +1018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1039,21 +1042,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1068,6 +1056,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1076,149 +1079,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,9 +1244,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1628,19 +1628,19 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1654,127 +1654,127 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6">
+        <v>20501</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20501</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20501</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>22</v>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20501</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>27</v>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6">
+        <v>20501</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="4:4">
-      <c r="D26" s="9"/>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1837,27 +1837,27 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
@@ -1866,225 +1866,225 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>33</v>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>22</v>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>22</v>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:9">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>33</v>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>22</v>
+      <c r="G8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>45</v>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>27</v>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2147,21 +2147,21 @@
     </row>
     <row r="2" customFormat="1" spans="1:7">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -2170,91 +2170,91 @@
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>22</v>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2298,19 +2298,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2324,33 +2324,33 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
@@ -2359,97 +2359,97 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
@@ -2458,30 +2458,30 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
@@ -2490,203 +2490,203 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
         <v>74</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
         <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>27</v>
+      <c r="I11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>27</v>
+      <c r="I12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2724,13 +2724,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2744,276 +2744,276 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11" t="s">
         <v>95</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>33</v>
+        <v>99</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>88</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>27</v>
+        <v>88</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
@@ -3055,49 +3055,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -3111,63 +3111,63 @@
     </row>
     <row r="2" ht="15" spans="1:21">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H2" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>130</v>
+      <c r="N2" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="R2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
@@ -3176,1021 +3176,1021 @@
     </row>
     <row r="3" ht="15" spans="1:21">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H3" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>130</v>
+      <c r="N3" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>134</v>
+      <c r="R3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="U3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:21">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H4" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>130</v>
+      <c r="N4" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>137</v>
+      <c r="R4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:21">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H5" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>130</v>
+      <c r="N5" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>140</v>
+      <c r="R5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="U5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:21">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="13" t="s">
-        <v>125</v>
+      <c r="H6" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>130</v>
+      <c r="N6" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>143</v>
+      <c r="R6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="U6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:21">
       <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" t="s">
         <v>145</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:21">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>125</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>130</v>
+      <c r="N8" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>148</v>
+      <c r="R8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="U8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:21">
       <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="U9" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:21">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H10" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="13" t="s">
-        <v>130</v>
+      <c r="N10" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>153</v>
+      <c r="R10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="U10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:21">
       <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" t="s">
         <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:21">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H12" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I12" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="13" t="s">
-        <v>130</v>
+      <c r="N12" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>158</v>
+      <c r="R12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="U12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:21">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H13" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="13" t="s">
-        <v>130</v>
+      <c r="N13" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>161</v>
+      <c r="R13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="U13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:21">
       <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="U14" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="U14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:21">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H15" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>166</v>
+      <c r="R15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="U15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:21">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H16" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>130</v>
+      <c r="N16" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>27</v>
+      <c r="R16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="U16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:21">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H17" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I17" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>130</v>
+      <c r="N17" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>103</v>
+      <c r="R17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="U17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:21">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H18" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="I18" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>130</v>
+      <c r="N18" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>27</v>
+      <c r="R18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="U18" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="15" spans="4:17">

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>case_name</t>
   </si>
@@ -30,64 +30,70 @@
     <t>token</t>
   </si>
   <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>benlee7@qq.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>login_PasswordError</t>
+  </si>
+  <si>
+    <t>interface2@163.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>参数错误或不完整</t>
+  </si>
+  <si>
+    <t>login_AccountError</t>
+  </si>
+  <si>
+    <t>interfa@163.com</t>
+  </si>
+  <si>
+    <t>login_AccountNull</t>
+  </si>
+  <si>
+    <t>login_PasswordNull</t>
+  </si>
+  <si>
+    <t>login_TokenNull</t>
+  </si>
+  <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>interface2@163.com</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>login_PasswordError</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>参数错误或不完整</t>
-  </si>
-  <si>
-    <t>login_EmailError</t>
-  </si>
-  <si>
-    <t>interfa@163.com</t>
-  </si>
-  <si>
-    <t>login_EmailNull</t>
-  </si>
-  <si>
-    <t>login_PasswordNull</t>
-  </si>
-  <si>
-    <t>login_TokenNull</t>
   </si>
   <si>
     <t>confirmpwd</t>
@@ -545,12 +551,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,26 +602,27 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -623,9 +630,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,11 +661,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,7 +683,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,70 +737,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -752,7 +765,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,19 +873,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,133 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,17 +987,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,33 +1007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1038,6 +1018,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,6 +1060,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1079,10 +1092,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,16 +1104,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,119 +1122,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1257,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1583,7 +1599,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1628,19 +1644,19 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1654,132 +1670,132 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="6">
         <v>20501</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="6">
         <v>20501</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="6">
         <v>20501</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="9" t="s">
-        <v>16</v>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="6">
         <v>20501</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>16</v>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="6">
         <v>20501</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="4:4">
-      <c r="D26" s="8"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="interfa@163.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="interface2@163.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="benlee7@qq.com" tooltip="mailto:benlee7@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1817,13 +1833,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1837,27 +1853,27 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
@@ -1866,225 +1882,225 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>27</v>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:9">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>31</v>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>42</v>
+      <c r="G9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>45</v>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -2147,21 +2163,21 @@
     </row>
     <row r="2" customFormat="1" spans="1:7">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -2170,91 +2186,91 @@
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>31</v>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2298,19 +2314,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2324,33 +2340,33 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>61</v>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
@@ -2359,97 +2375,97 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>31</v>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>61</v>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>31</v>
+      <c r="G4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="G5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
@@ -2458,30 +2474,30 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="G6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
@@ -2490,203 +2506,203 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>61</v>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>61</v>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>31</v>
+      <c r="H8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>61</v>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>61</v>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>45</v>
+      <c r="G11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>61</v>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>45</v>
+      <c r="G12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2724,13 +2740,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2744,276 +2760,276 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>87</v>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
@@ -3055,49 +3071,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -3111,63 +3127,63 @@
     </row>
     <row r="2" ht="15" spans="1:21">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
@@ -3176,1021 +3192,1021 @@
     </row>
     <row r="3" ht="15" spans="1:21">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>135</v>
+      <c r="R3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="U3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:21">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="10" t="s">
-        <v>138</v>
+      <c r="R4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="U4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:21">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>126</v>
+      <c r="G5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>141</v>
+      <c r="R5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="U5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:21">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="12" t="s">
-        <v>126</v>
+      <c r="H6" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>144</v>
+      <c r="R6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:21">
       <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="U7" t="s">
         <v>147</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="U7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:21">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="12" t="s">
         <v>126</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>149</v>
+      <c r="R8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="U8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:21">
       <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="U9" t="s">
         <v>152</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="U9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:21">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>154</v>
+      <c r="R10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="U10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:21">
       <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="U11" t="s">
         <v>157</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="U11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:21">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I12" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>131</v>
+      <c r="M12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="10" t="s">
-        <v>159</v>
+      <c r="R12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="U12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:21">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="12" t="s">
-        <v>131</v>
+      <c r="N13" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="10" t="s">
-        <v>162</v>
+      <c r="R13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="U13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:21">
       <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="U14" t="s">
         <v>165</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="U14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:21">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="10" t="s">
-        <v>167</v>
+      <c r="R15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="U15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:21">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T16" s="10" t="s">
-        <v>45</v>
+      <c r="R16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:21">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>131</v>
+      <c r="N17" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>104</v>
+      <c r="R17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="U17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:21">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="G18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="I18" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="10" t="s">
-        <v>45</v>
+      <c r="R18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="15" spans="4:17">

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>case_name</t>
   </si>
@@ -45,121 +45,124 @@
     <t>msg</t>
   </si>
   <si>
+    <t>login_PasswordError</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>benlee7@qq.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>用户名或密码错误，请重试</t>
+  </si>
+  <si>
+    <t>login_AccountError</t>
+  </si>
+  <si>
+    <t>interfa@163.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>该邮箱地址未注册过</t>
+  </si>
+  <si>
+    <t>login_AccountNull</t>
+  </si>
+  <si>
+    <t>参数错误或不完整</t>
+  </si>
+  <si>
+    <t>login_PasswordNull</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>benlee7@qq.com</t>
-  </si>
-  <si>
-    <t>123456</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>confirmpwd</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>interface4@163.com</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>login_PasswordError</t>
+    <t>register_PasswordError</t>
+  </si>
+  <si>
+    <t>400502</t>
+  </si>
+  <si>
+    <t>please your input are the same</t>
+  </si>
+  <si>
+    <t>register_EmailError</t>
+  </si>
+  <si>
+    <t>interfa$163.com</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>email with interfa$163.com call: Argument is not an json: email</t>
+  </si>
+  <si>
+    <t>register_EmailNull</t>
+  </si>
+  <si>
+    <t>email with  call: Argument is not an json: email</t>
+  </si>
+  <si>
+    <t>register_PasswordNull</t>
+  </si>
+  <si>
+    <t>password with  call: Argument is a blank string: password</t>
+  </si>
+  <si>
+    <t>register_ConfirmError</t>
+  </si>
+  <si>
+    <t>interface3@163.com</t>
+  </si>
+  <si>
+    <t>register_ConfirmNull</t>
+  </si>
+  <si>
+    <t>passwordConfirm with  call: Argument is a blank string: passwordConfirm</t>
+  </si>
+  <si>
+    <t>register_EmailExist</t>
+  </si>
+  <si>
+    <t>400503</t>
+  </si>
+  <si>
+    <t>EmailHasBeenUsed</t>
+  </si>
+  <si>
+    <t>register_TokenNull</t>
   </si>
   <si>
     <t>interface2@163.com</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>参数错误或不完整</t>
-  </si>
-  <si>
-    <t>login_AccountError</t>
-  </si>
-  <si>
-    <t>interfa@163.com</t>
-  </si>
-  <si>
-    <t>login_AccountNull</t>
-  </si>
-  <si>
-    <t>login_PasswordNull</t>
-  </si>
-  <si>
-    <t>login_TokenNull</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>confirmpwd</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>interface4@163.com</t>
-  </si>
-  <si>
-    <t>register_PasswordError</t>
-  </si>
-  <si>
-    <t>400502</t>
-  </si>
-  <si>
-    <t>please your input are the same</t>
-  </si>
-  <si>
-    <t>register_EmailError</t>
-  </si>
-  <si>
-    <t>interfa$163.com</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>email with interfa$163.com call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>register_EmailNull</t>
-  </si>
-  <si>
-    <t>email with  call: Argument is not an json: email</t>
-  </si>
-  <si>
-    <t>register_PasswordNull</t>
-  </si>
-  <si>
-    <t>password with  call: Argument is a blank string: password</t>
-  </si>
-  <si>
-    <t>register_ConfirmError</t>
-  </si>
-  <si>
-    <t>interface3@163.com</t>
-  </si>
-  <si>
-    <t>register_ConfirmNull</t>
-  </si>
-  <si>
-    <t>passwordConfirm with  call: Argument is a blank string: passwordConfirm</t>
-  </si>
-  <si>
-    <t>register_EmailExist</t>
-  </si>
-  <si>
-    <t>400503</t>
-  </si>
-  <si>
-    <t>EmailHasBeenUsed</t>
-  </si>
-  <si>
-    <t>register_TokenNull</t>
   </si>
   <si>
     <t>100105</t>
@@ -551,12 +554,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,15 +606,46 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="微软雅黑"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -622,17 +656,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,7 +703,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,74 +718,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,13 +729,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,7 +754,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,19 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +832,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,73 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,25 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,31 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,19 +979,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,15 +1000,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1042,6 +1011,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,15 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1084,6 +1062,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1092,10 +1081,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,16 +1093,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,119 +1111,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,12 +1243,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1596,10 +1579,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1644,46 +1627,46 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6">
+        <v>21003</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="6">
-        <v>20501</v>
+        <v>20108</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>18</v>
@@ -1696,23 +1679,21 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="6">
         <v>20501</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
@@ -1722,21 +1703,21 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="6">
         <v>20501</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:8">
@@ -1746,56 +1727,30 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6">
-        <v>20501</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6">
-        <v>20501</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="4:4">
-      <c r="D26" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="24" ht="16.5" spans="4:4">
+      <c r="D24" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="interfa@163.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="benlee7@qq.com" tooltip="mailto:benlee7@qq.com"/>
+    <hyperlink ref="D3" r:id="rId1" display="interfa@163.com"/>
+    <hyperlink ref="D6" r:id="rId2" display="benlee7@qq.com" tooltip="mailto:benlee7@qq.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="benlee7@qq.com"/>
+    <hyperlink ref="D5" r:id="rId2" display="benlee7@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1833,13 +1788,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1853,31 +1808,31 @@
     </row>
     <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
@@ -1887,22 +1842,22 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
@@ -1916,22 +1871,22 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I4" t="s">
@@ -1945,19 +1900,19 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I5" t="s">
@@ -1971,19 +1926,19 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I6" t="s">
@@ -1997,22 +1952,22 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I7" t="s">
@@ -2026,19 +1981,19 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I8" t="s">
@@ -2052,22 +2007,22 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I9" t="s">
@@ -2081,26 +2036,26 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>47</v>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2148,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -2163,64 +2118,64 @@
     </row>
     <row r="2" customFormat="1" spans="1:7">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="G4" t="s">
@@ -2229,21 +2184,21 @@
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G5" t="s">
@@ -2252,25 +2207,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2314,19 +2269,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2340,369 +2295,369 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>63</v>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>63</v>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="H5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>63</v>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>63</v>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>63</v>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="G9" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>63</v>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="G10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>47</v>
+      <c r="H11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>63</v>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>47</v>
+      <c r="H12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2740,13 +2695,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2760,79 +2715,79 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>89</v>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="11" t="s">
         <v>91</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I4" t="s">
@@ -2841,56 +2796,56 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="11" t="s">
         <v>98</v>
       </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I6" t="s">
@@ -2899,24 +2854,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="I7" t="s">
@@ -2925,115 +2880,115 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>47</v>
+        <v>91</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>12</v>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>47</v>
+        <v>91</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>12</v>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3071,49 +3026,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -3127,1086 +3082,1086 @@
     </row>
     <row r="2" ht="15" spans="1:21">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H2" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:21">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H3" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O3" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="U3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:21">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H4" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O4" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="U4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:21">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H5" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O5" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="U5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:21">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="13" t="s">
-        <v>128</v>
+      <c r="H6" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O6" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="U6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:21">
       <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:21">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>128</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O8" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:21">
       <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="U9" t="s">
         <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:21">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H10" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O10" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>156</v>
+        <v>136</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="U10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:21">
       <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="U11" t="s">
         <v>158</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:21">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H12" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I12" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>133</v>
+      <c r="M12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>161</v>
+        <v>136</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="U12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:21">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="13" t="s">
-        <v>133</v>
+      <c r="N13" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="U13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:21">
       <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="U14" t="s">
         <v>166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="U14" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:21">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H15" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>16</v>
+        <v>133</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>169</v>
+        <v>136</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="U15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:21">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H16" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O16" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>47</v>
+        <v>136</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:21">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>17</v>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H17" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I17" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O17" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>106</v>
+        <v>136</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="U17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:21">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H18" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="I18" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="13" t="s">
         <v>133</v>
       </c>
+      <c r="M18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="O18" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>47</v>
+        <v>136</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="U18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="15" spans="4:17">
